--- a/工作/learnplan.xlsx
+++ b/工作/learnplan.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D87676-17F1-402B-B1AD-E97A0D3199F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE71276-880A-4B48-A8FE-15B1629E00FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +37,13 @@
   <si>
     <t>1.Task
 2.await/async</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习autofac
+2.阿里云容器服务
+3.rabbitmq文档阅读
+4.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -110,6 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -748,4 +757,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B543C72-7F9E-47CF-9727-7899AE1E876F}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.1328125" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="27.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="55.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>43470</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/工作/learnplan.xlsx
+++ b/工作/learnplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE71276-880A-4B48-A8FE-15B1629E00FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E007C61F-4139-4A2E-95C6-73D568D689E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,11 @@
 2.阿里云容器服务
 3.rabbitmq文档阅读
 4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 C:\dave\code\github
+下下载了github 有趣的代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,6 +139,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>32682</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>354952</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83353DCC-54F8-4C2F-81A6-0DD464B553D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4980920" y="1109661"/>
+          <a:ext cx="6151570" cy="2713639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,7 +818,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -794,9 +848,13 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:3" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>43473</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -908,5 +966,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>